--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\Helicopter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F54AADA-162D-4669-B265-83D53273AE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B0062-1BAB-4514-9406-51E233AC08BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EC1B3186-396C-4892-93B0-07928D0AEC02}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{EC1B3186-396C-4892-93B0-07928D0AEC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -598,6 +598,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>162123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C84D350-DC4D-4026-1AF9-67657A76FD1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="28736926"/>
+          <a:ext cx="3695700" cy="2829122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -923,8 +967,8 @@
   </sheetPr>
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q114" sqref="Q114"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H132" sqref="H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LogBook.xlsx
+++ b/LogBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annet\Documents\GitHub\Helicopter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B0062-1BAB-4514-9406-51E233AC08BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A93257-4306-44B5-8D4E-D11B7F7F61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{EC1B3186-396C-4892-93B0-07928D0AEC02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>For this scene, I have established a mapping of 1.0 OpenGL unit = 1 metre. This scale allows for intuitive placement and size of objects in the scene. Using a metric unit simplifies calculations and as someone who uses the metric system in everyday life, it is easier to use. Additionally, for animation and movement, velocity can be thought of as x metres per second.</t>
   </si>
@@ -89,20 +89,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Work Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Created helicopter model with rotors spinning on up button press. I used cubes and spheres to create the basic shapes and scaled them to better look like the part of the helicopter they represent. The tail cap will need to be added next time. Additionally, while the rotors do speed up, this logic will likely need to be replaced as I implement the helicopter control and tracking camera.</t>
-    </r>
-  </si>
-  <si>
     <t>03/10/2024, 2 - 3:30pm</t>
   </si>
   <si>
@@ -127,20 +113,6 @@
   </si>
   <si>
     <t>To Do: Lighting</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Work Done: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Increased the size of the ground plane. Added a spotlight to the helicopter and animate it so it moves when the helicopter moves. Also replaced the global lighting (directional lighting). This might need further work as I’m unsure how much this new lighting system affects the world.  </t>
-    </r>
   </si>
   <si>
     <t>18/10/2024, 10am – 4pm</t>
@@ -173,6 +145,95 @@
       <t>I did some research to ensure that my helicopter followed the scale I set of 1.0 GL Unit = 1 metre. This included changing the rotor RPM to what most helicopters operate at with the main and tail rotors having a different speed and how fast the helicopter moves. Also because the template needs the variable in a ‘per second’, I needed to adjust the RPM value to be revolutions per second.
 Next I found a texture for the ground but it was in .png format so I opened up a sandbox and after playing around with the settings, managed to export a .ppm file that would work. I did have some trouble applying it so I used the createTexture function to put a random noise texture on the ground. From here, I was able to modify the function to have it read from the file and convert the data into a texture.</t>
     </r>
+  </si>
+  <si>
+    <t>To Do: Objects</t>
+  </si>
+  <si>
+    <t>22/10/2024, 11am – 12pm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To Do: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Work Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>: I added dense fog to give it a winter early morning feel. I also adjusted the speed at which the rotors increase so the helicopter takes off faster. I also added some light rain to improve the atmosphere.</t>
+    </r>
+  </si>
+  <si>
+    <t>23/10/2024, 3 – 4pm</t>
+  </si>
+  <si>
+    <r>
+      <t>Work Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Created helicopter model with rotors spinning on up button press. I used cubes and spheres to create the basic shapes and scaled them to better look like the part of the helicopter they represent. The tail cap will need to be added next time. Additionally, while the rotors do speed up, this logic will likely need to be replaced as I implement the helicopter control and tracking camera. I did oringally plan to have a helicopter with two blades on top, like ones you might find in the miltary but found the more typical design to be easier.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Work Done: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Increased the size of the ground plane. Added a spotlight to the helicopter and animate it so it moves when the helicopter moves. Also replaced the global lighting (directional lighting). This might need further work as I’m unsure how much this new lighting system affects the world. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Work Done: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>I adjusted the size of the helicopter to make it better match what a really helicopter size is. I also filled out the scene with windmills, buildings, and trees. I also replaced the previous ground texture with a new dirt and increased the tiling. I found the last ground very hard to look at. The buildings are 10m high, windmills are 20m and trees are 4m. I did have to spend a little bit of time adjust the tiling of textures and size of the objects to ensure they were realistic.</t>
+    </r>
+  </si>
+  <si>
+    <t>I think I did pretty well considering I have very little experience with the rendering pipeline. I found the textures to be the most difficult aspect, as I had trouble converting a .png to a .ppm and then applying it correctly. Next time, I would start on the assignment earlier to allow more time for troubleshooting and refinement. While the application does load quickly, I believe there is room for improvement in optimizing the rendering process and enhancing visual effects.</t>
   </si>
 </sst>
 </file>
@@ -221,11 +282,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -233,6 +291,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -358,14 +422,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>407035</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>4737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -388,8 +452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7200900"/>
-          <a:ext cx="6503035" cy="4057650"/>
+          <a:off x="0" y="7610475"/>
+          <a:ext cx="5762625" cy="3595662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -451,15 +515,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>103298</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>127476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -488,8 +552,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19107150"/>
-          <a:ext cx="5153025" cy="4284773"/>
+          <a:off x="1" y="19288125"/>
+          <a:ext cx="4953000" cy="4118451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -502,14 +566,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>2019299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>321587</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -538,8 +602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24622125"/>
-          <a:ext cx="3152775" cy="2226310"/>
+          <a:off x="0" y="26060399"/>
+          <a:ext cx="3979187" cy="2809875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -551,65 +615,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>157480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B34FF0-8149-32E0-A2FF-38A3B41A011A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="24622125"/>
-          <a:ext cx="3286125" cy="2252980"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>162123</xdr:rowOff>
+      <xdr:rowOff>171648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,6 +639,50 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162426" y="26069926"/>
+          <a:ext cx="3695700" cy="2829122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>38708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5209CEBC-ECC6-B3C8-BD17-87C80F4208A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
@@ -632,8 +690,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="28736926"/>
-          <a:ext cx="3695700" cy="2829122"/>
+          <a:off x="66676" y="30584776"/>
+          <a:ext cx="5648324" cy="4201132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422376</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C00904-C670-B0B1-1297-1E199507312C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="36871275"/>
+          <a:ext cx="7089876" cy="5372100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -965,265 +1067,265 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H132" sqref="H132"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P183" sqref="P183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1238,55 +1340,55 @@
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1296,176 +1398,393 @@
     <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-      <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="1:13" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+    </row>
+    <row r="159" spans="1:13" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="5"/>
+    </row>
+    <row r="191" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A83:M83"/>
-    <mergeCell ref="A84:M84"/>
-    <mergeCell ref="A85:M85"/>
-    <mergeCell ref="A112:M112"/>
-    <mergeCell ref="A113:M113"/>
-    <mergeCell ref="A114:M114"/>
+  <mergeCells count="23">
+    <mergeCell ref="A192:M198"/>
+    <mergeCell ref="A129:M129"/>
+    <mergeCell ref="A130:M130"/>
+    <mergeCell ref="A157:M157"/>
+    <mergeCell ref="A158:M158"/>
+    <mergeCell ref="A159:M159"/>
+    <mergeCell ref="A1:M5"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A128:M128"/>
+    <mergeCell ref="A111:M111"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A32:M32"/>
     <mergeCell ref="A56:M56"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A1:M5"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A83:M83"/>
+    <mergeCell ref="A84:M84"/>
+    <mergeCell ref="A85:M85"/>
+    <mergeCell ref="A109:M109"/>
+    <mergeCell ref="A110:M110"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
